--- a/testdata/Test.xlsx
+++ b/testdata/Test.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TestSheet" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>FirstName</t>
   </si>
@@ -52,12 +53,19 @@
   </si>
   <si>
     <t>NY</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Hichem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -414,6 +422,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -447,6 +458,11 @@
       </c>
       <c r="E3">
         <v>12345</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -476,4 +492,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/testdata/Test.xlsx
+++ b/testdata/Test.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="TestSheet" r:id="rId7" sheetId="4"/>
+    <sheet name="TestSheet" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>FirstName</t>
   </si>
@@ -55,17 +55,22 @@
     <t>NY</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Hichem</t>
+    <t xml:space="preserve">Hichem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country </t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Vienna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,12 +406,12 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,10 +428,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -442,8 +447,11 @@
       <c r="E2">
         <v>20166</v>
       </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -459,10 +467,28 @@
       <c r="E3">
         <v>12345</v>
       </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>22180</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -495,13 +521,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>